--- a/Game development tracking sheet.xlsx
+++ b/Game development tracking sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10220493\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Documents\S3\asdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{548D2588-A3BD-4428-9025-838D7BE23358}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,11 +480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +535,7 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
@@ -559,7 +560,7 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Game development tracking sheet.xlsx
+++ b/Game development tracking sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Documents\S3\asdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{548D2588-A3BD-4428-9025-838D7BE23358}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D23DA3EA-25DE-4383-89FA-8CCE2C020B9C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">

--- a/Game development tracking sheet.xlsx
+++ b/Game development tracking sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Documents\S3\asdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D23DA3EA-25DE-4383-89FA-8CCE2C020B9C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{48ED45F4-ACC6-401F-9400-BE5B1E590534}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +603,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
